--- a/ClosedXML.Tests/Resource/Other/Formulas/DataTableFormula-Output.xlsx
+++ b/ClosedXML.Tests/Resource/Other/Formulas/DataTableFormula-Output.xlsx
@@ -977,12 +977,12 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:sheetData>
-    <x:row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <x:row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <x:row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="B2" s="0">
         <x:f>#REF!&amp;A1</x:f>
       </x:c>
@@ -993,7 +993,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <x:row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="B3" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
@@ -1004,7 +1004,7 @@
         <x:v>#REF!</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <x:row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="B4" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
@@ -1015,7 +1015,7 @@
         <x:v>#REF!</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <x:row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="B5" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
